--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/44.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/44.xlsx
@@ -479,13 +479,13 @@
         <v>0.05945601678393221</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.78962185031981</v>
+        <v>-1.80485678139488</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04350364162422928</v>
+        <v>0.04152509958875432</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08064554254924117</v>
+        <v>-0.07645392962921743</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.05605977618518487</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.835465157227693</v>
+        <v>-1.84245616315495</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0222480874101848</v>
+        <v>0.017673987843685</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06239321681863839</v>
+        <v>-0.06279931375193397</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.04417790109946723</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.936540008092456</v>
+        <v>-1.942961219097802</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0191659296903576</v>
+        <v>-0.0157345680059221</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06892697019115754</v>
+        <v>-0.06338012680769392</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.01691810034298679</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.977590426775978</v>
+        <v>-1.99172669250438</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03819739488600422</v>
+        <v>-0.03634634839935461</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06401760455182069</v>
+        <v>-0.06019431210618133</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.03034042072935999</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.932016277137838</v>
+        <v>-1.955428237548064</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0203118156106645</v>
+        <v>-0.02293098342850884</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08201021712740886</v>
+        <v>-0.07470362036633106</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.09830146613996277</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.803003373879548</v>
+        <v>-1.830816291752932</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0208786907746532</v>
+        <v>0.01807064066225277</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06955185578231392</v>
+        <v>-0.06764886666466138</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1820493608316159</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.530441500777757</v>
+        <v>-1.564430869683124</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05648457731759605</v>
+        <v>0.05647513320286825</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06473378325201251</v>
+        <v>-0.0640207525900633</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2712187835161298</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.122151171836647</v>
+        <v>-1.165263555569073</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04769210650601041</v>
+        <v>0.05256841774379994</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04926589734699065</v>
+        <v>-0.04961847763016201</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3499421060160763</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6157238987206822</v>
+        <v>-0.6606857549206363</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04093956447563046</v>
+        <v>0.04767951435304001</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02172056272422862</v>
+        <v>-0.01925092672290784</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3993742094531076</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1089039078339524</v>
+        <v>-0.1526962678267801</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05478283436714956</v>
+        <v>-0.04637599824028259</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01674846460036019</v>
+        <v>0.01949197992878729</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.4024329348910979</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4777345926939353</v>
+        <v>0.430767436133444</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2318127649398379</v>
+        <v>-0.230090788021135</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07673275929400811</v>
+        <v>0.08102038738043117</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.351250363421</v>
       </c>
       <c r="E13" t="n">
-        <v>1.061884568991047</v>
+        <v>1.007906731264282</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5102740617082639</v>
+        <v>-0.5173902021556643</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1673096896292562</v>
+        <v>0.1726739467946489</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.2494225397624797</v>
       </c>
       <c r="E14" t="n">
-        <v>1.653936121277087</v>
+        <v>1.59383220113022</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8186543139343734</v>
+        <v>-0.830712874422658</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2685458774539525</v>
+        <v>0.2808625770781304</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.1104487052256932</v>
       </c>
       <c r="E15" t="n">
-        <v>2.342903178899854</v>
+        <v>2.270724958073489</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.155357466229167</v>
+        <v>-1.169120689425821</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3914437164259889</v>
+        <v>0.4021454724317123</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.04387977150514238</v>
       </c>
       <c r="E16" t="n">
-        <v>2.88994408039318</v>
+        <v>2.808800246651887</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.504314357383287</v>
+        <v>-1.518605663995137</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5210783572371923</v>
+        <v>0.5267700103798155</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2016094372424826</v>
       </c>
       <c r="E17" t="n">
-        <v>3.388417047879652</v>
+        <v>3.307026093136315</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.845561702881276</v>
+        <v>-1.859886063894673</v>
       </c>
       <c r="G17" t="n">
-        <v>0.638638697368898</v>
+        <v>0.6507995691000672</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3631612659877688</v>
       </c>
       <c r="E18" t="n">
-        <v>3.796804178996722</v>
+        <v>3.72361228985624</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.152050771133143</v>
+        <v>-2.175507591088326</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7949293519993286</v>
+        <v>0.8032401729597962</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5258741660699722</v>
       </c>
       <c r="E19" t="n">
-        <v>4.141807134118134</v>
+        <v>4.074363562808643</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.503897561393971</v>
+        <v>-2.531667980751079</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9382280528025432</v>
+        <v>0.9473180132280546</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6786056826999798</v>
       </c>
       <c r="E20" t="n">
-        <v>4.45515656471019</v>
+        <v>4.384105341574678</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.822945728214696</v>
+        <v>-2.857822843904477</v>
       </c>
       <c r="G20" t="n">
-        <v>1.056860299955855</v>
+        <v>1.072277817248995</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8059090805452008</v>
       </c>
       <c r="E21" t="n">
-        <v>4.666740937052793</v>
+        <v>4.608355845786386</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.093989459873992</v>
+        <v>-3.133160499726681</v>
       </c>
       <c r="G21" t="n">
-        <v>1.163506391500462</v>
+        <v>1.183784479840178</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8989761261285104</v>
       </c>
       <c r="E22" t="n">
-        <v>4.834322030840314</v>
+        <v>4.776432755597116</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.307158869471745</v>
+        <v>-3.356058134503632</v>
       </c>
       <c r="G22" t="n">
-        <v>1.246244706611632</v>
+        <v>1.272219170151336</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9583490526538542</v>
       </c>
       <c r="E23" t="n">
-        <v>4.945631941041334</v>
+        <v>4.890580622273842</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.447006533351507</v>
+        <v>-3.495960889052641</v>
       </c>
       <c r="G23" t="n">
-        <v>1.322159648831964</v>
+        <v>1.350888645833944</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.9925209660341162</v>
       </c>
       <c r="E24" t="n">
-        <v>5.01550107581675</v>
+        <v>4.960191617913365</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.561673826338263</v>
+        <v>-3.612874307325492</v>
       </c>
       <c r="G24" t="n">
-        <v>1.38285540016844</v>
+        <v>1.413183600597662</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.007893118408842</v>
       </c>
       <c r="E25" t="n">
-        <v>5.006458335964878</v>
+        <v>4.957265516366867</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.663464068893657</v>
+        <v>-3.714238777708574</v>
       </c>
       <c r="G25" t="n">
-        <v>1.421935146912094</v>
+        <v>1.452534078630179</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.009191749696311</v>
       </c>
       <c r="E26" t="n">
-        <v>4.99215679822874</v>
+        <v>4.949028674305101</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.682946490567556</v>
+        <v>-3.731142956061783</v>
       </c>
       <c r="G26" t="n">
-        <v>1.445691817509885</v>
+        <v>1.478661222024649</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9994809853285126</v>
       </c>
       <c r="E27" t="n">
-        <v>4.946721162273274</v>
+        <v>4.910784731714858</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.641352248277625</v>
+        <v>-3.681020678172644</v>
       </c>
       <c r="G27" t="n">
-        <v>1.442139256353109</v>
+        <v>1.473728246098493</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.984952019929577</v>
       </c>
       <c r="E28" t="n">
-        <v>4.795564958016526</v>
+        <v>4.760538310510222</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.573955897541772</v>
+        <v>-3.610148106207399</v>
       </c>
       <c r="G28" t="n">
-        <v>1.393626413015501</v>
+        <v>1.427532358907439</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9718989968423211</v>
       </c>
       <c r="E29" t="n">
-        <v>4.665747730987252</v>
+        <v>4.633946248660493</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.485501531991598</v>
+        <v>-3.520142544813183</v>
       </c>
       <c r="G29" t="n">
-        <v>1.350249594070696</v>
+        <v>1.382055798454819</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9638763732351729</v>
       </c>
       <c r="E30" t="n">
-        <v>4.510296028548475</v>
+        <v>4.486585004505201</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.353617617856055</v>
+        <v>-3.396481306567316</v>
       </c>
       <c r="G30" t="n">
-        <v>1.298094470486398</v>
+        <v>1.32901607612435</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9607628524216317</v>
       </c>
       <c r="E31" t="n">
-        <v>4.353086146751205</v>
+        <v>4.333521089073438</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.231103052540056</v>
+        <v>-3.276013753118568</v>
       </c>
       <c r="G31" t="n">
-        <v>1.236501528250781</v>
+        <v>1.260525782099193</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9598073951853801</v>
       </c>
       <c r="E32" t="n">
-        <v>4.217537916101275</v>
+        <v>4.194335300234181</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.090823320411496</v>
+        <v>-3.138383882180718</v>
       </c>
       <c r="G32" t="n">
-        <v>1.165714740327646</v>
+        <v>1.191901696448726</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9581943516066348</v>
       </c>
       <c r="E33" t="n">
-        <v>4.011886021826855</v>
+        <v>3.990731204836573</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.964083300764365</v>
+        <v>-3.01751810189428</v>
       </c>
       <c r="G33" t="n">
-        <v>1.097041860084419</v>
+        <v>1.121201479577263</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9520142574100483</v>
       </c>
       <c r="E34" t="n">
-        <v>3.757190839770948</v>
+        <v>3.734170810121925</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.887086220398138</v>
+        <v>-2.938188325190286</v>
       </c>
       <c r="G34" t="n">
-        <v>1.038574919823705</v>
+        <v>1.061917623392594</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9396008525228862</v>
       </c>
       <c r="E35" t="n">
-        <v>3.516068424598017</v>
+        <v>3.493330144371707</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.791673116312694</v>
+        <v>-2.848530622021878</v>
       </c>
       <c r="G35" t="n">
-        <v>0.940038174792039</v>
+        <v>0.9678589627610286</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9185760098152217</v>
       </c>
       <c r="E36" t="n">
-        <v>3.253119086270009</v>
+        <v>3.236149586123267</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.73175414341258</v>
+        <v>-2.780195368880169</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8687335345779965</v>
+        <v>0.8954808415062591</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8884533682572321</v>
       </c>
       <c r="E37" t="n">
-        <v>3.008516514819882</v>
+        <v>2.987046894005341</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.634179124064029</v>
+        <v>-2.68155788662474</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8192558175190306</v>
+        <v>0.8404248006814036</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8487852052014792</v>
       </c>
       <c r="E38" t="n">
-        <v>2.716362825715262</v>
+        <v>2.702653119168732</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.550429501667423</v>
+        <v>-2.590922717582004</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7510252366488884</v>
+        <v>0.7744151607914167</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.80079915260658</v>
       </c>
       <c r="E39" t="n">
-        <v>2.459371149761377</v>
+        <v>2.448197188019263</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.432072707860339</v>
+        <v>-2.479063474707649</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6815574767494039</v>
+        <v>0.7048749960123523</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7465087273537254</v>
       </c>
       <c r="E40" t="n">
-        <v>2.22299755027741</v>
+        <v>2.213339368949109</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.333674476511348</v>
+        <v>-2.383521301054258</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6324370620309733</v>
+        <v>0.6506374451305732</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6874539430922222</v>
       </c>
       <c r="E41" t="n">
-        <v>2.022813798430389</v>
+        <v>2.012066395870148</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.240840402756154</v>
+        <v>-2.287403823412032</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5682092117862988</v>
+        <v>0.5857264705872541</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6268832557764064</v>
       </c>
       <c r="E42" t="n">
-        <v>1.763505166329949</v>
+        <v>1.761098491093481</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.144095678494089</v>
+        <v>-2.189266879237176</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4995331835048284</v>
+        <v>0.5154229065343588</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5659798986071153</v>
       </c>
       <c r="E43" t="n">
-        <v>1.546676162275173</v>
+        <v>1.544083752782391</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.061982248974075</v>
+        <v>-2.107761808107545</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4467468782528886</v>
+        <v>0.4618291294731918</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5076795159379394</v>
       </c>
       <c r="E44" t="n">
-        <v>1.311210771824197</v>
+        <v>1.315336275941126</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.973438951343548</v>
+        <v>-2.019147679616559</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4044309481958409</v>
+        <v>0.4130786092482669</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4537882274461845</v>
       </c>
       <c r="E45" t="n">
-        <v>1.101554572905188</v>
+        <v>1.104512154834112</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.896557561382737</v>
+        <v>-1.939903686954676</v>
       </c>
       <c r="G45" t="n">
-        <v>0.346614077832224</v>
+        <v>0.353670405553015</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4054381381595424</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8994237594051173</v>
+        <v>0.9053766997218765</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.830061549584268</v>
+        <v>-1.872863851549798</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2766190215271038</v>
+        <v>0.2846465190457372</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.362534721667715</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7368323062321201</v>
+        <v>0.7451242389631322</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.785956746795862</v>
+        <v>-1.824332119982733</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2408730472823651</v>
+        <v>0.2459697211971368</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3243319206729621</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5776029579022213</v>
+        <v>0.5843397597413882</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.717390112843322</v>
+        <v>-1.75814461593204</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1991631145870182</v>
+        <v>0.2009480522705732</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2903934554217087</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4479352626894706</v>
+        <v>0.4570677216312572</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.669917696144893</v>
+        <v>-1.709814358812502</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1410597727433246</v>
+        <v>0.147872127500314</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2590053940896858</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3549910075957863</v>
+        <v>0.3557764431373153</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.6033201601131</v>
+        <v>-1.64749028469504</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1115768205822414</v>
+        <v>0.113992939933438</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2293941537847231</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2222335128479224</v>
+        <v>0.2252147050636659</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.556191666592676</v>
+        <v>-1.595723943833703</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07389480281830296</v>
+        <v>0.07703182292705524</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2008307344359233</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1157385271389604</v>
+        <v>0.1183655650524113</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.508234452004887</v>
+        <v>-1.552123614173674</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04520987835171923</v>
+        <v>0.04639668876917995</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1743225840230174</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01956595882748843</v>
+        <v>0.02733846524847122</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.496360051753794</v>
+        <v>-1.533101593092756</v>
       </c>
       <c r="G53" t="n">
-        <v>0.006171056105219572</v>
+        <v>0.00703519260281365</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1494284621843348</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.07436205821700882</v>
+        <v>-0.06437648091147725</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.477759080787823</v>
+        <v>-1.515404109102411</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01552364944366781</v>
+        <v>-0.01372611960714242</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1259114834422417</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1460224267524652</v>
+        <v>-0.1364539645140783</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.4632332453269</v>
+        <v>-1.502476690059169</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04541742059541047</v>
+        <v>-0.04347193296148282</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1037312614484074</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2204152924824996</v>
+        <v>-0.2052795246120722</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.469752832527327</v>
+        <v>-1.508090429255288</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07437307635085792</v>
+        <v>-0.07447223955549986</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.08229253828962356</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2729828090765787</v>
+        <v>-0.260656665337673</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.464678981889815</v>
+        <v>-1.504542590155876</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1152346127398238</v>
+        <v>-0.107928015978746</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.06276900010610215</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3613025959918816</v>
+        <v>-0.3450382564114816</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.464048587231734</v>
+        <v>-1.503746923490058</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1332571316787166</v>
+        <v>-0.1280864788652439</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.04536184988347493</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4374725293098645</v>
+        <v>-0.419237517789596</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.488408107152983</v>
+        <v>-1.523699189871666</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1560379104213015</v>
+        <v>-0.1516526931493578</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.03053717331032079</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4985003986809348</v>
+        <v>-0.4874570805258892</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.504529998002905</v>
+        <v>-1.538387149302083</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.192463860926442</v>
+        <v>-0.1842207227881903</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.01787940486885705</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5728523399138153</v>
+        <v>-0.5595030837460642</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.535764046436436</v>
+        <v>-1.567361693286986</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2133652608381938</v>
+        <v>-0.2063372654615863</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.007185830350925787</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6290526926398564</v>
+        <v>-0.6144379250985795</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.559370398208143</v>
+        <v>-1.595921483233427</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.223871838472876</v>
+        <v>-0.2189483066614474</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.001374707747451984</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.683135989647748</v>
+        <v>-0.6668527618378924</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.606302139338405</v>
+        <v>-1.640862090175243</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2589110781321506</v>
+        <v>-0.2524450075818473</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.007899292035699335</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7415683014877935</v>
+        <v>-0.7228374739443153</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.650421108298902</v>
+        <v>-1.682515358182223</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2770957210405374</v>
+        <v>-0.273675377489951</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.0127622805542547</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8226365823112641</v>
+        <v>-0.7988138029103782</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.694881639408722</v>
+        <v>-1.727140374290219</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3091317322163703</v>
+        <v>-0.3005281436993407</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.01630955617223761</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9074636207964007</v>
+        <v>-0.8737520662659433</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.733888981272796</v>
+        <v>-1.766176048498476</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3258997579155865</v>
+        <v>-0.3205622590752559</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.01906284442085227</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9594943968701163</v>
+        <v>-0.9264990210398506</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.760853502839798</v>
+        <v>-1.796235091657955</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3507708340512587</v>
+        <v>-0.3442197664684052</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.02191427900180868</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.013094470007769</v>
+        <v>-0.9679988221825039</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.792236296080291</v>
+        <v>-1.829567307580179</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.378270522119503</v>
+        <v>-0.3690011235141633</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.02479685685070295</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.040804289628707</v>
+        <v>-0.9908740420723668</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.821307642241154</v>
+        <v>-1.867347701539199</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3956996358496656</v>
+        <v>-0.3875572349351771</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.02803960237290382</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.038179612743938</v>
+        <v>-0.9884130631762131</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.856365770129884</v>
+        <v>-1.899207422573446</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4241878079260867</v>
+        <v>-0.4111061350089567</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.03164990228036522</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.034680568237286</v>
+        <v>-0.9931091492246138</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.8806599682576</v>
+        <v>-1.924900923699998</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4341482009256774</v>
+        <v>-0.420603766386885</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.03648548896794348</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.044526844850583</v>
+        <v>-0.995701558717396</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.925787096465291</v>
+        <v>-1.968332833314048</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4385176780064081</v>
+        <v>-0.4256044251352573</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.04311359262825033</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.010850705750354</v>
+        <v>-0.9589726095314051</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.939718739707923</v>
+        <v>-1.989229511168436</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4505730904564501</v>
+        <v>-0.4380061217919854</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.05218495613390424</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9538979718843317</v>
+        <v>-0.9057377088298946</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.981690746586966</v>
+        <v>-2.027627707632566</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4545978573496159</v>
+        <v>-0.4385098079108016</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.06346603176737724</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8965879356777736</v>
+        <v>-0.8469339284772222</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.004487265520764</v>
+        <v>-2.052874187328669</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4605051511118575</v>
+        <v>-0.445227721520513</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.07639823007372878</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.8043118517010814</v>
+        <v>-0.7570204472016023</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.04384876168713</v>
+        <v>-2.085099867808618</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4500977366818173</v>
+        <v>-0.4369641211336844</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.08990778401946239</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.7154789345522345</v>
+        <v>-0.6627130915488716</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.043459978964169</v>
+        <v>-2.079682093993101</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4328275988829062</v>
+        <v>-0.4224941633515671</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1026756281497603</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.6022219626981649</v>
+        <v>-0.5510443049881943</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.054221547696502</v>
+        <v>-2.084756731640175</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.424765472943604</v>
+        <v>-0.4144839800432679</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1142975993396568</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.4440235968927179</v>
+        <v>-0.3935605438638179</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.040944696408331</v>
+        <v>-2.068186245340682</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3985911089754949</v>
+        <v>-0.3892713417582735</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1242197139283002</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.3077103929498358</v>
+        <v>-0.2538946791925653</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.007941450482459</v>
+        <v>-2.035099576401381</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3802396200402502</v>
+        <v>-0.3698762781456065</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1324539105034623</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1037741795176335</v>
+        <v>-0.05305141333371881</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.969898982339742</v>
+        <v>-2.000915816134533</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3561964779623822</v>
+        <v>-0.3435964548963701</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1383122780456121</v>
       </c>
       <c r="E82" t="n">
-        <v>0.07205949652286636</v>
+        <v>0.1191824809763664</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.925616315390629</v>
+        <v>-1.957567329533912</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3428849982535422</v>
+        <v>-0.3239826026258423</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1416889141161125</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2738597660074636</v>
+        <v>0.3251916775913217</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.871387421614017</v>
+        <v>-1.899942489503094</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2994153121805812</v>
+        <v>-0.2845644417711092</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1427321498381743</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4960388610555409</v>
+        <v>0.5370090047638765</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.795186794923169</v>
+        <v>-1.81912447771991</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2734140903158151</v>
+        <v>-0.2544770662674465</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1418390806622256</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6843545087279552</v>
+        <v>0.7204121387587114</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.68029677823075</v>
+        <v>-1.703385277711549</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2524292673906343</v>
+        <v>-0.2294139597989757</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1390658223866305</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8943994903699255</v>
+        <v>0.9343528177259008</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.596148141986894</v>
+        <v>-1.613307311437753</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2183423092997466</v>
+        <v>-0.1955741227101322</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1355976143961583</v>
       </c>
       <c r="E87" t="n">
-        <v>1.112010781927988</v>
+        <v>1.145984410642142</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.484098442798862</v>
+        <v>-1.49325687305615</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1749670643740636</v>
+        <v>-0.1569823218940819</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1325488836126914</v>
       </c>
       <c r="E88" t="n">
-        <v>1.289144597762682</v>
+        <v>1.31607921296638</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.323737374720748</v>
+        <v>-1.337570641768299</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1513567775545533</v>
+        <v>-0.1304412114707097</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1312785415135146</v>
       </c>
       <c r="E89" t="n">
-        <v>1.426244811266215</v>
+        <v>1.44953399818498</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.141208608347795</v>
+        <v>-1.155988647896809</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1235359895855636</v>
+        <v>-0.1027809734520927</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1336818904825926</v>
       </c>
       <c r="E90" t="n">
-        <v>1.54358636274006</v>
+        <v>1.564930062024897</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9576016388767522</v>
+        <v>-0.9706597015070627</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.09535002918043219</v>
+        <v>-0.07767536846734677</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1409485617532097</v>
       </c>
       <c r="E91" t="n">
-        <v>1.613669564115973</v>
+        <v>1.640648251855067</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7660474468622618</v>
+        <v>-0.7758913624468763</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09968330382137298</v>
+        <v>-0.08106265761638584</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1538087778708064</v>
       </c>
       <c r="E92" t="n">
-        <v>1.686033519198651</v>
+        <v>1.702891263987781</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5701025285089031</v>
+        <v>-0.572432076808428</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.09204931108306465</v>
+        <v>-0.07473195271051448</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1723023784305079</v>
       </c>
       <c r="E93" t="n">
-        <v>1.701114196399833</v>
+        <v>1.71212288613421</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4003429922575026</v>
+        <v>-0.4002579952249523</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.09298113040287466</v>
+        <v>-0.07907152342794048</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.195399295383246</v>
       </c>
       <c r="E94" t="n">
-        <v>1.689600246527518</v>
+        <v>1.698948346088923</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2167352357768986</v>
+        <v>-0.2153784312943374</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1064326978135103</v>
+        <v>-0.09792197642463751</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2210918434869278</v>
       </c>
       <c r="E95" t="n">
-        <v>1.659007610885918</v>
+        <v>1.666632159509499</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07216472752367306</v>
+        <v>-0.07420150826663614</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1135976328536711</v>
+        <v>-0.1035349286111958</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2466924104086854</v>
       </c>
       <c r="E96" t="n">
-        <v>1.60685248730162</v>
+        <v>1.606170937022096</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02618313521343652</v>
+        <v>0.03261615136219242</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1209451541119027</v>
+        <v>-0.1158532022544949</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2667428430769602</v>
       </c>
       <c r="E97" t="n">
-        <v>1.522581077566302</v>
+        <v>1.513481673026063</v>
       </c>
       <c r="F97" t="n">
-        <v>0.08827031945314215</v>
+        <v>0.09549349320079101</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1398506977778452</v>
+        <v>-0.1374928171341368</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2760621392195562</v>
       </c>
       <c r="E98" t="n">
-        <v>1.382820771747772</v>
+        <v>1.380500667562974</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1386609676024624</v>
+        <v>0.1440330948634616</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1487439058131941</v>
+        <v>-0.1460240007715865</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2739510640471546</v>
       </c>
       <c r="E99" t="n">
-        <v>1.255296890578232</v>
+        <v>1.252792626156243</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1454512860917535</v>
+        <v>0.1551299296686315</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1623890775757498</v>
+        <v>-0.1608481128559964</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2589439913316837</v>
       </c>
       <c r="E100" t="n">
-        <v>1.125117639151059</v>
+        <v>1.124329055571287</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1591751588103742</v>
+        <v>0.1726330222974951</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1695193841952419</v>
+        <v>-0.1680098998579145</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2366700809511707</v>
       </c>
       <c r="E101" t="n">
-        <v>1.018136281533615</v>
+        <v>1.013332375175406</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1726739467946489</v>
+        <v>0.1844586279558272</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1936837257454501</v>
+        <v>-0.191804346914617</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2051010557729943</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8999762401166939</v>
+        <v>0.8970768968952579</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1620902422230231</v>
+        <v>0.1801835920223745</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1909024339581117</v>
+        <v>-0.1937262242617252</v>
       </c>
     </row>
   </sheetData>
